--- a/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.06147632883663</v>
+        <v>90.02466531025073</v>
       </c>
       <c r="D2" t="n">
-        <v>2.807534791041638</v>
+        <v>2.817465866872527</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.8417971438333</v>
+        <v>88.58456562999048</v>
       </c>
       <c r="D3" t="n">
-        <v>2.722563487743311</v>
+        <v>2.629157773621892</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.93123396549824</v>
+        <v>88.30961535732472</v>
       </c>
       <c r="D4" t="n">
-        <v>2.785407928764586</v>
+        <v>2.540195373360257</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.81743619681298</v>
+        <v>87.19293283331618</v>
       </c>
       <c r="D5" t="n">
-        <v>2.920596619190477</v>
+        <v>2.580794431989134</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.04830621160028</v>
+        <v>85.8731163365124</v>
       </c>
       <c r="D6" t="n">
-        <v>2.757869080718573</v>
+        <v>3.003753451628361</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.7499632301394</v>
+        <v>84.70180095903348</v>
       </c>
       <c r="D7" t="n">
-        <v>3.074546799576759</v>
+        <v>3.303365223697255</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.17080113175933</v>
+        <v>84.08916070588835</v>
       </c>
       <c r="D8" t="n">
-        <v>3.107898116344279</v>
+        <v>2.976170725546183</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.68644597584593</v>
+        <v>82.29574499341579</v>
       </c>
       <c r="D9" t="n">
-        <v>3.507885826366993</v>
+        <v>2.952287200985407</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.02361173534784</v>
+        <v>82.00025297156684</v>
       </c>
       <c r="D10" t="n">
-        <v>3.029482043390629</v>
+        <v>3.364273509152865</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.60938999101916</v>
+        <v>80.86554679644512</v>
       </c>
       <c r="D11" t="n">
-        <v>3.16983407338635</v>
+        <v>2.909189036938264</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.03120522540964</v>
+        <v>79.58139888652423</v>
       </c>
       <c r="D12" t="n">
-        <v>3.363010619753644</v>
+        <v>3.379347035124585</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.16504873222303</v>
+        <v>79.03529868160959</v>
       </c>
       <c r="D13" t="n">
-        <v>3.432565116501798</v>
+        <v>3.289730819731838</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.5678584954435</v>
+        <v>77.89413697002726</v>
       </c>
       <c r="D14" t="n">
-        <v>3.332991840954277</v>
+        <v>3.516790145874932</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.22677432770242</v>
+        <v>77.0401169167686</v>
       </c>
       <c r="D15" t="n">
-        <v>3.389435268797699</v>
+        <v>3.784601152383012</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.77787522245322</v>
+        <v>75.95102264848458</v>
       </c>
       <c r="D16" t="n">
-        <v>3.45269522935002</v>
+        <v>3.276305597790307</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.84835232783182</v>
+        <v>74.58737383425931</v>
       </c>
       <c r="D17" t="n">
-        <v>3.425441735074707</v>
+        <v>3.27722704461472</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.75386478494185</v>
+        <v>74.57469887692392</v>
       </c>
       <c r="D18" t="n">
-        <v>3.76203772188709</v>
+        <v>3.179482941367247</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.27353144811084</v>
+        <v>73.0230939478671</v>
       </c>
       <c r="D19" t="n">
-        <v>3.461030125345655</v>
+        <v>3.061694440270813</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.98798193607901</v>
+        <v>72.36495250334202</v>
       </c>
       <c r="D20" t="n">
-        <v>3.261481682801713</v>
+        <v>2.924997431591639</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.39920177328588</v>
+        <v>71.31546320742383</v>
       </c>
       <c r="D21" t="n">
-        <v>3.85404371300959</v>
+        <v>3.511299527739893</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.65013895805686</v>
+        <v>69.32531268374986</v>
       </c>
       <c r="D22" t="n">
-        <v>3.63673809415414</v>
+        <v>3.5131421784297</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.34457226732114</v>
+        <v>68.53787749855643</v>
       </c>
       <c r="D23" t="n">
-        <v>3.476984535783461</v>
+        <v>3.45771887473419</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.83185254569858</v>
+        <v>67.81334899799212</v>
       </c>
       <c r="D24" t="n">
-        <v>3.424950636926957</v>
+        <v>3.564937174563624</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.42619569359333</v>
+        <v>66.34719621992836</v>
       </c>
       <c r="D25" t="n">
-        <v>3.52061956305075</v>
+        <v>3.250691817543416</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.2622481885618</v>
+        <v>66.02548562345271</v>
       </c>
       <c r="D26" t="n">
-        <v>3.903897226718381</v>
+        <v>3.430953801444833</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.22530176161339</v>
+        <v>65.15947041647227</v>
       </c>
       <c r="D27" t="n">
-        <v>3.708699072022997</v>
+        <v>3.297342702054415</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.36327478914449</v>
+        <v>64.25531115821116</v>
       </c>
       <c r="D28" t="n">
-        <v>3.472765886638469</v>
+        <v>3.078513039512572</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.04414728636496</v>
+        <v>63.42424466969108</v>
       </c>
       <c r="D29" t="n">
-        <v>3.538015594110754</v>
+        <v>3.12883308274789</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.77450841144086</v>
+        <v>61.90508099078477</v>
       </c>
       <c r="D30" t="n">
-        <v>3.759518726145386</v>
+        <v>4.366536477613548</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.22044823964728</v>
+        <v>61.41411513917166</v>
       </c>
       <c r="D31" t="n">
-        <v>3.604878089908353</v>
+        <v>3.55689120865483</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.02421981830415</v>
+        <v>59.02398708989394</v>
       </c>
       <c r="D32" t="n">
-        <v>3.538635566790434</v>
+        <v>3.850641089802088</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.5680574737589</v>
+        <v>58.19010252769358</v>
       </c>
       <c r="D33" t="n">
-        <v>3.705371067528799</v>
+        <v>3.667116635008585</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.1639166227215</v>
+        <v>57.80415515551046</v>
       </c>
       <c r="D34" t="n">
-        <v>3.809153840942525</v>
+        <v>3.481623453035034</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.53279519934915</v>
+        <v>56.85491499129636</v>
       </c>
       <c r="D35" t="n">
-        <v>3.333391269408288</v>
+        <v>3.568432211995239</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.46087854656929</v>
+        <v>55.37795461261958</v>
       </c>
       <c r="D36" t="n">
-        <v>3.586876222352392</v>
+        <v>3.958329850920866</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.08999554610555</v>
+        <v>54.65652786021086</v>
       </c>
       <c r="D37" t="n">
-        <v>3.873608652310939</v>
+        <v>3.743879946393497</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.13318393561394</v>
+        <v>53.73237262005014</v>
       </c>
       <c r="D38" t="n">
-        <v>4.165078696631086</v>
+        <v>3.994627253803952</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.95089827331073</v>
+        <v>52.80960997224949</v>
       </c>
       <c r="D39" t="n">
-        <v>3.924770361228147</v>
+        <v>4.101309372995495</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.78237163846704</v>
+        <v>51.68765099389245</v>
       </c>
       <c r="D40" t="n">
-        <v>3.890327517762288</v>
+        <v>4.641346601394843</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.46964336570628</v>
+        <v>50.73269673003742</v>
       </c>
       <c r="D41" t="n">
-        <v>3.924355498072181</v>
+        <v>4.062533088979514</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.88748312462666</v>
+        <v>49.66354098647285</v>
       </c>
       <c r="D42" t="n">
-        <v>4.075125029494818</v>
+        <v>4.06099220242412</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.91921983212397</v>
+        <v>48.78910572488094</v>
       </c>
       <c r="D43" t="n">
-        <v>3.88083303677085</v>
+        <v>3.786350530365359</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.50855683631325</v>
+        <v>47.51225843274364</v>
       </c>
       <c r="D44" t="n">
-        <v>3.850940160113889</v>
+        <v>4.199109353692703</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.9866556185935</v>
+        <v>46.78207285188787</v>
       </c>
       <c r="D45" t="n">
-        <v>3.551514953453629</v>
+        <v>3.848616172035871</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.25666586513746</v>
+        <v>45.63236767537793</v>
       </c>
       <c r="D46" t="n">
-        <v>4.240838451177136</v>
+        <v>4.408977267496597</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.37263850863096</v>
+        <v>44.74436245453683</v>
       </c>
       <c r="D47" t="n">
-        <v>4.300798515311379</v>
+        <v>3.977827927761106</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.01229744956611</v>
+        <v>43.99122934824098</v>
       </c>
       <c r="D48" t="n">
-        <v>4.386371441721217</v>
+        <v>4.336413751148704</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.5852052467565</v>
+        <v>42.58536477184349</v>
       </c>
       <c r="D49" t="n">
-        <v>4.364963650591867</v>
+        <v>4.399254657551741</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.06172424174665</v>
+        <v>41.85965871444046</v>
       </c>
       <c r="D50" t="n">
-        <v>3.832497976673657</v>
+        <v>3.890773943396161</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.41536688084799</v>
+        <v>40.29401713083151</v>
       </c>
       <c r="D51" t="n">
-        <v>4.13673411364346</v>
+        <v>3.861788811542199</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.38568364963871</v>
+        <v>40.07728926636362</v>
       </c>
       <c r="D52" t="n">
-        <v>4.1661787548665</v>
+        <v>4.611795327088595</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.26045297383924</v>
+        <v>38.92600272358781</v>
       </c>
       <c r="D53" t="n">
-        <v>3.991082126801116</v>
+        <v>4.382177655572545</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.29495063332916</v>
+        <v>37.47287924942442</v>
       </c>
       <c r="D54" t="n">
-        <v>4.168998776213175</v>
+        <v>4.387629386718432</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.74264561668235</v>
+        <v>36.46932532969204</v>
       </c>
       <c r="D55" t="n">
-        <v>4.783207235991132</v>
+        <v>4.89411789559293</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.43728622626014</v>
+        <v>35.93564389278388</v>
       </c>
       <c r="D56" t="n">
-        <v>4.038114939149652</v>
+        <v>4.189030178610348</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.48451159030735</v>
+        <v>34.38798297239325</v>
       </c>
       <c r="D57" t="n">
-        <v>4.192928130952776</v>
+        <v>4.321340692141003</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.41244777929698</v>
+        <v>33.4985455757047</v>
       </c>
       <c r="D58" t="n">
-        <v>5.624562986810176</v>
+        <v>5.035441464422193</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.41195603490975</v>
+        <v>32.53426614171516</v>
       </c>
       <c r="D59" t="n">
-        <v>4.425857786916422</v>
+        <v>4.3706281075511</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.58117533426976</v>
+        <v>31.07765318066402</v>
       </c>
       <c r="D60" t="n">
-        <v>4.706200550860779</v>
+        <v>4.633527446881492</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.43319661896398</v>
+        <v>30.26451607491223</v>
       </c>
       <c r="D61" t="n">
-        <v>4.437154528137989</v>
+        <v>4.920988585349861</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.47350790811135</v>
+        <v>29.77548017869339</v>
       </c>
       <c r="D62" t="n">
-        <v>4.138669166518709</v>
+        <v>4.600607887679359</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.23349911064783</v>
+        <v>28.88080306074901</v>
       </c>
       <c r="D63" t="n">
-        <v>4.774809268433207</v>
+        <v>4.547891197304061</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.9402758364995</v>
+        <v>26.95510273507737</v>
       </c>
       <c r="D64" t="n">
-        <v>4.775089797909561</v>
+        <v>4.427134236369819</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.25925654488242</v>
+        <v>26.76616683137913</v>
       </c>
       <c r="D65" t="n">
-        <v>4.864301778655763</v>
+        <v>4.691169356018329</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.96795287940095</v>
+        <v>25.79430113189098</v>
       </c>
       <c r="D66" t="n">
-        <v>4.478349914941755</v>
+        <v>4.503330721576028</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.24043670620964</v>
+        <v>25.04000211859571</v>
       </c>
       <c r="D67" t="n">
-        <v>5.235730012815687</v>
+        <v>4.91838963784716</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.59721361476472</v>
+        <v>24.36444695559479</v>
       </c>
       <c r="D68" t="n">
-        <v>4.524806208375862</v>
+        <v>4.390506437709677</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.29329051864563</v>
+        <v>22.8353289716738</v>
       </c>
       <c r="D69" t="n">
-        <v>4.716564540458596</v>
+        <v>5.976243604304422</v>
       </c>
     </row>
   </sheetData>
